--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>-18.8514735107338</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.429157774267257</v>
+        <v>-8.648791063386174</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.948795175183896</v>
+        <v>-2.953901173292169</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.107548897201461</v>
+        <v>-5.33393781458671</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-18.43995398685546</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.712750146121886</v>
+        <v>-8.899927616496164</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.929091259407099</v>
+        <v>-3.027440638354145</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.061765114163945</v>
+        <v>-5.25179670655772</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.90811425435502</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.54030151644455</v>
+        <v>-9.722713388584438</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.763958043664407</v>
+        <v>-2.906847436879006</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.942612066001396</v>
+        <v>-5.119250232588086</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-17.33468253150278</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.28148296492034</v>
+        <v>-10.50377399151613</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.708996556334842</v>
+        <v>-2.819927638312786</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.175982364155163</v>
+        <v>-5.348810670614911</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.76011258162199</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.11290965688416</v>
+        <v>-11.28658896302862</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.533022913839202</v>
+        <v>-2.665831233865671</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.697497972198601</v>
+        <v>-4.900006529200541</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.23535989052617</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.80181354011294</v>
+        <v>-11.96355266606575</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.486780900202225</v>
+        <v>-2.6446609801706</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.787599200355359</v>
+        <v>-5.020246238498953</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.78639618063786</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.35885174911986</v>
+        <v>-12.47518676881756</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.383534999992373</v>
+        <v>-2.519537841912224</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.298038720194697</v>
+        <v>-4.584730784468936</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-15.43464680767566</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.35198147348183</v>
+        <v>-13.43468236717914</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.169659140769936</v>
+        <v>-2.264604520978133</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.1223923852701</v>
+        <v>-4.504016737449694</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.17992279329228</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.11277519161453</v>
+        <v>-14.18974165666716</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.145726411175261</v>
+        <v>-2.228967272642955</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.727999854465944</v>
+        <v>-4.106089284878272</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.01180684041255</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.79367967780703</v>
+        <v>-14.87153641945289</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.948831268738543</v>
+        <v>-2.064658871979293</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.490832788488076</v>
+        <v>-3.893863055813892</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.90711117050248</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.44786277389955</v>
+        <v>-15.51952685630128</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.025683086419475</v>
+        <v>-2.071859638542243</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.964810244913206</v>
+        <v>-3.389887950224489</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.83676779253982</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.42145878242167</v>
+        <v>-16.47360224128639</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.821862115779483</v>
+        <v>-1.892626012639012</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.310443856580895</v>
+        <v>-2.748234187951494</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.77522370672371</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.01719783862873</v>
+        <v>-17.11583206488442</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.560068428156329</v>
+        <v>-1.639355414165822</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.997694926297743</v>
+        <v>-2.371084219989892</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-14.69367443161572</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.93206177660286</v>
+        <v>-18.01613736209855</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.418448988317378</v>
+        <v>-1.478254627698382</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.416043187948379</v>
+        <v>-1.790113281388297</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.57061856262675</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.83611147242973</v>
+        <v>-18.91534290587398</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.25174469623368</v>
+        <v>-1.320872055237993</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.006070816762569</v>
+        <v>-1.408852330334392</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.39194927342462</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.63656177587002</v>
+        <v>-19.69985987675589</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.051785954931997</v>
+        <v>-1.077813452981349</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.502985987766403</v>
+        <v>-0.8978466581189823</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-14.15635006269043</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.5917892835052</v>
+        <v>-20.66815350262711</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9631772492991955</v>
+        <v>-0.9796342739712451</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.13251309425408</v>
+        <v>-0.522634350977955</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.87147822743915</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.42970975767851</v>
+        <v>-21.49870301030053</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8502430449864664</v>
+        <v>-0.8197379793652446</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.7740589347504624</v>
+        <v>-0.1647300681936895</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.54568960786107</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.09815037156568</v>
+        <v>-22.13852385017568</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6209706376221595</v>
+        <v>-0.5683526725012624</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.4226222495700095</v>
+        <v>0.2282746785092437</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.19027665684986</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.71651292708324</v>
+        <v>-22.77115701579072</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3415678026768835</v>
+        <v>-0.2661168614000162</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.06738879656545615</v>
+        <v>0.5554120496154529</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.81657921341925</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.37732072841368</v>
+        <v>-23.40490302714732</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1652013910959916</v>
+        <v>-0.01517669283265259</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0665323692025598</v>
+        <v>0.5453964379415325</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.43963730015435</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.8137788282483</v>
+        <v>-23.90527774945524</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0952884939211744</v>
+        <v>0.09322757469683925</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2880410409817232</v>
+        <v>0.805802341463464</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-12.07320758039966</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.22144695413397</v>
+        <v>-24.26903429160976</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1317112804268563</v>
+        <v>0.06349495494327935</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2996670059051759</v>
+        <v>0.7460490712938261</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.72424701661615</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.48765274781478</v>
+        <v>-24.55770647696698</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1650650403893902</v>
+        <v>0.3460792194790948</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2903845631903921</v>
+        <v>0.7263451555170285</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-11.39540151992333</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.49317769961399</v>
+        <v>-24.57371836334241</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1509515379260095</v>
+        <v>0.3558853543075476</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1439078789971609</v>
+        <v>0.5824214703779338</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-11.08573442144172</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.47384036831676</v>
+        <v>-24.51612532314166</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0480776498739102</v>
+        <v>0.1761804055020156</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1529546602607936</v>
+        <v>0.5505940821696977</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.79733706532081</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.53995649766748</v>
+        <v>-24.63522600209284</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1322950063765498</v>
+        <v>0.3059513112692044</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1357568020049497</v>
+        <v>0.2478869481661493</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.53214096360095</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.61123099433783</v>
+        <v>-24.6634530070196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08043639482047288</v>
+        <v>0.2766638298122632</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2137345577302701</v>
+        <v>0.1350836668818375</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.29062809289996</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.3781225422409</v>
+        <v>-24.46062705139558</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.03595417744247186</v>
+        <v>0.1309857760923772</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.3798758807917739</v>
+        <v>-0.06534639732214689</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.07310521822733</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.92429095653531</v>
+        <v>-23.9797205834133</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0400913451404573</v>
+        <v>0.134389774831226</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.8951758283392702</v>
+        <v>-0.5452709425912994</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.879113455731382</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.98196255055311</v>
+        <v>-24.03701250064869</v>
       </c>
       <c r="F32" t="n">
-        <v>0.02300046225382062</v>
+        <v>0.1826480031058283</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.037855744708401</v>
+        <v>-0.6450342902452521</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.7114521063938</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.57518470126069</v>
+        <v>-23.6335077270667</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02919854917614121</v>
+        <v>0.1103784914195004</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.543454295850178</v>
+        <v>-1.128663957218613</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.569516994701599</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.96098549804679</v>
+        <v>-23.07640405654557</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1030784141120014</v>
+        <v>-0.04130892930473783</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.59497250753237</v>
+        <v>-1.210569403796451</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.450033963899278</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.60245278472612</v>
+        <v>-22.72403781786335</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2946318969892955</v>
+        <v>-0.2390419791233266</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.713156725284632</v>
+        <v>-1.242278961279112</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.346995925628187</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.8372600528386</v>
+        <v>-22.01270681986669</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4031539952443629</v>
+        <v>-0.3561788126482497</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.888868521723437</v>
+        <v>-1.460763311101836</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.254301518220345</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.04774182227115</v>
+        <v>-21.20657445699309</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3442386324565956</v>
+        <v>-0.2911493444333964</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.040948711532927</v>
+        <v>-1.585140188098234</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.170649919014021</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.66073335026973</v>
+        <v>-20.83693947086264</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4127637455301899</v>
+        <v>-0.360852764762746</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.308620843132017</v>
+        <v>-1.843412046256964</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.092279273343582</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.01190500603947</v>
+        <v>-20.18373829748325</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3172815809054816</v>
+        <v>-0.1953791491461702</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.489569560707513</v>
+        <v>-1.999315188496238</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.015836707068464</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.63444082280966</v>
+        <v>-19.87076679805178</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.531615670727379</v>
+        <v>-0.4767196449120217</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.701979082011676</v>
+        <v>-2.221701044565797</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.937100905460609</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.04468494900127</v>
+        <v>-19.3465902691776</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2956530966109501</v>
+        <v>-0.1912027045396596</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.597934551328479</v>
+        <v>-2.056646382640157</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.853808500470743</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.50580576403583</v>
+        <v>-18.76268665473945</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.05883952280980903</v>
+        <v>0.05281163582443088</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.680180397780203</v>
+        <v>-2.04355407979843</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.766619302101384</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.5999493304168</v>
+        <v>-17.85957960471719</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.03287748627466624</v>
+        <v>0.05251051285907118</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.630246354741859</v>
+        <v>-1.918103633969011</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.675280850546086</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.26635745400962</v>
+        <v>-17.52255754496548</v>
       </c>
       <c r="F44" t="n">
-        <v>0.005666253291375308</v>
+        <v>0.08412842422183964</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.845235059705843</v>
+        <v>-2.109303624669579</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.580271127930741</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.70637347686331</v>
+        <v>-16.9884701428401</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.01687869220207698</v>
+        <v>0.05041574440439501</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.910159789497963</v>
+        <v>-2.158635421777203</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.480559602850384</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.25386421374473</v>
+        <v>-16.60318985481379</v>
       </c>
       <c r="F46" t="n">
-        <v>0.05481475815921497</v>
+        <v>0.08113028687108437</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.776539746695306</v>
+        <v>-2.106868456341018</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.379052076983383</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.59488933481213</v>
+        <v>-15.96708722894569</v>
       </c>
       <c r="F47" t="n">
-        <v>0.01949172509223803</v>
+        <v>0.08909040699885382</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.134522583296622</v>
+        <v>-2.398578055957516</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.280870525467893</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.93988142364058</v>
+        <v>-15.31660925455737</v>
       </c>
       <c r="F48" t="n">
-        <v>0.05311275878979058</v>
+        <v>0.07608975027701984</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.027283530720044</v>
+        <v>-2.32822002048608</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.187688438233687</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.33408747885107</v>
+        <v>-14.77299065596322</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1476653699127362</v>
+        <v>0.2139124222918702</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.299524876010896</v>
+        <v>-2.527785992702511</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.097057712722304</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.64790679461337</v>
+        <v>-14.1079540408149</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2511600238765808</v>
+        <v>0.3714651946892016</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.263363935562048</v>
+        <v>-2.448263345241867</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-8.00773196594966</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.83260981975056</v>
+        <v>-13.33728872633954</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2672373717662204</v>
+        <v>0.3523897094488068</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.396512655462403</v>
+        <v>-2.515858904813698</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.925780053559983</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.23917500884364</v>
+        <v>-12.73736013322313</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3398865602349584</v>
+        <v>0.4458032902245223</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.351187103024347</v>
+        <v>-2.520847072196396</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.858128816636163</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.58950875723151</v>
+        <v>-12.10703121290822</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4024284909098838</v>
+        <v>0.4934069033570382</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.402522022466755</v>
+        <v>-2.545787909109885</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.812341076896167</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.20954394415894</v>
+        <v>-11.71991800248407</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2921520240740251</v>
+        <v>0.3911952950716828</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.563203855243259</v>
+        <v>-2.646952133167902</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.793839162688914</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.67015415938267</v>
+        <v>-11.26904527722071</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09354178996504067</v>
+        <v>0.1283149463126651</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.009716843660327</v>
+        <v>-3.109830500137127</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.804668005654384</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.25180271437815</v>
+        <v>-10.84985592483432</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1139003208839247</v>
+        <v>0.2194897433024454</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.113159128412804</v>
+        <v>-3.175318198951441</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.847377109492015</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.48748716678103</v>
+        <v>-10.08832903774248</v>
       </c>
       <c r="F57" t="n">
-        <v>0.06892826062259567</v>
+        <v>0.1789036044930946</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.510078473665414</v>
+        <v>-3.517799748988153</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.921383201620036</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.21639794414025</v>
+        <v>-9.787075149354363</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.09400544824268525</v>
+        <v>-0.002843743555746636</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.531916434805412</v>
+        <v>-3.565220069880885</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.0249856224684</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.615605259036277</v>
+        <v>-9.232079339590754</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.03501153163786758</v>
+        <v>0.09337159002809824</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.827606094485795</v>
+        <v>-3.836440215550082</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.155318641438759</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.282589443954134</v>
+        <v>-8.899128986022818</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1476315206823952</v>
+        <v>-0.04966181851775905</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.725459947714649</v>
+        <v>-3.767915102476488</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.309690486217738</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.733773201131818</v>
+        <v>-8.374062180555395</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1720879423907395</v>
+        <v>-0.06969304186559994</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.104469022679777</v>
+        <v>-4.161116233722047</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.485777888027226</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.255066240026947</v>
+        <v>-7.882158178186063</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1327848492598779</v>
+        <v>-0.01947096816473874</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.120585647477942</v>
+        <v>-4.128411661223415</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.676206724854286</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.806942898360346</v>
+        <v>-7.389809037520112</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1415174152553091</v>
+        <v>-0.05660073902387387</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.099598686022655</v>
+        <v>-4.129877999141688</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.871904059120872</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.462301118354749</v>
+        <v>-7.067332526225558</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2998819104288277</v>
+        <v>-0.2225456775427518</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.289149046565164</v>
+        <v>-4.372137970924987</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-9.062538279205953</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.100482237020808</v>
+        <v>-6.675008579270394</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2415949781774632</v>
+        <v>-0.1788566629599119</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.54200069134742</v>
+        <v>-4.646762115333034</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.242088013269614</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.851649929210962</v>
+        <v>-6.4247492104508</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.355353997569221</v>
+        <v>-0.289303329732713</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.507437011845264</v>
+        <v>-4.629637383216056</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.408864734945393</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.693206880220393</v>
+        <v>-6.277342972755807</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4417501040217713</v>
+        <v>-0.3481925079147969</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.592851195584684</v>
+        <v>-4.727188131689757</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.561024154704276</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.422287857516556</v>
+        <v>-6.004604119956969</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.393544244958536</v>
+        <v>-0.32242685592228</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.580753907758929</v>
+        <v>-4.745046032765871</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.697435746173637</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.296536288721777</v>
+        <v>-5.86671598642791</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6769271399676967</v>
+        <v>-0.5649486737624136</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.615697264043496</v>
+        <v>-4.834335538146442</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.814880962984677</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.111686064899446</v>
+        <v>-5.640075131934791</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5968415234848583</v>
+        <v>-0.520866890094322</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.452567170635589</v>
+        <v>-4.685227301082024</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.913971120953383</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.017971361158372</v>
+        <v>-5.519455745853968</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6649869597760425</v>
+        <v>-0.6058228432342825</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.371368708411205</v>
+        <v>-4.651396790539004</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.996085250520656</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.034559308858839</v>
+        <v>-5.5136296710894</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7910265592333394</v>
+        <v>-0.7077595131599616</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.205737985160528</v>
+        <v>-4.555207641560843</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.06225156021513</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.089206580920203</v>
+        <v>-5.542956429454867</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8363652039742367</v>
+        <v>-0.753621850014528</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.019133392757406</v>
+        <v>-4.359844298556607</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.11275673046874</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.309484576232244</v>
+        <v>-5.787573015749676</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7136379571358966</v>
+        <v>-0.6507425342842446</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.873258954494895</v>
+        <v>-4.237444359289309</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.14628687900164</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.50127372056069</v>
+        <v>-5.995701354024596</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.054980476825379</v>
+        <v>-0.9798306585138711</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.703726724997384</v>
+        <v>-4.057817964300828</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.1646301506172</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.970685146647936</v>
+        <v>-6.511878485862487</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9881704554240506</v>
+        <v>-0.9031490407698815</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.501463738395557</v>
+        <v>-3.899741499789827</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.16874814017446</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.407784769321802</v>
+        <v>-6.963994979895814</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.049953032534156</v>
+        <v>-0.9660706482272169</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.422098198569014</v>
+        <v>-3.822955143623104</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.15778230928046</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.003301256380555</v>
+        <v>-7.52874455527651</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.102793566803362</v>
+        <v>-1.03178091618984</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.061195778433993</v>
+        <v>-3.437845055533732</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.12855672077536</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.418523641005896</v>
+        <v>-7.946546123561672</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.09754355336383</v>
+        <v>-1.003396803628978</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.907819450643172</v>
+        <v>-3.228394394671798</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.07613621418091</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.876819701980518</v>
+        <v>-8.423511808388595</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.243548914654759</v>
+        <v>-1.195015748020481</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.540881478898116</v>
+        <v>-2.857437085954332</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.99780265076622</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.764229080895552</v>
+        <v>-9.365817213118985</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.213436618118789</v>
+        <v>-1.120703837090844</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.543696324009087</v>
+        <v>-2.839841030935052</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.890364930506133</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.52734013663124</v>
+        <v>-10.17843026589924</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.293875726778354</v>
+        <v>-1.212428510799976</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.341734460372621</v>
+        <v>-2.650670347174952</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.750539170633065</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.3223833189979</v>
+        <v>-11.0149236790628</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.420295003018061</v>
+        <v>-1.311301581860692</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.0028271090117</v>
+        <v>-2.291941249311658</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.574974496527183</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.5106538172158</v>
+        <v>-12.22343487747401</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.492944191486799</v>
+        <v>-1.396768134811479</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.850380334722642</v>
+        <v>-2.170693432694432</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.360623953344668</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.38700020022957</v>
+        <v>-13.09839347638656</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.56220247351953</v>
+        <v>-1.49158259199126</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.517547811880281</v>
+        <v>-1.826431329471246</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.110865808005158</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.53066522266571</v>
+        <v>-14.30297698394525</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.741161161063084</v>
+        <v>-1.684680966603877</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.258843907727774</v>
+        <v>-1.585676972514745</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.832476384158236</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.58720096969016</v>
+        <v>-15.39429897962017</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.780333331165528</v>
+        <v>-1.737914269958336</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.840374631997684</v>
+        <v>-1.171528156722424</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.534336992907201</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.97562659375237</v>
+        <v>-16.78433495693191</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.741409914817077</v>
+        <v>-1.746175513051465</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.544671880014459</v>
+        <v>-0.8593814723699912</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.223318636806228</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.61042317269018</v>
+        <v>-18.4805606208031</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.968823215177858</v>
+        <v>-1.98749283903016</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.359049210324467</v>
+        <v>-0.6491190887318705</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.904108057836456</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.18271709786159</v>
+        <v>-20.08722184093404</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.182947828154288</v>
+        <v>-2.2057938966131</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.068033502758579</v>
+        <v>-0.3499730611012716</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.583192414407719</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.92006568495864</v>
+        <v>-21.91646530167716</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.353658364907554</v>
+        <v>-2.405896653246041</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.207126128149077</v>
+        <v>-0.5041742039711212</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-7.262434323361515</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.57760359393253</v>
+        <v>-23.63175335848591</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.456354388398053</v>
+        <v>-2.502871340394706</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.001341312082827</v>
+        <v>-0.3291562995829271</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.942027336340489</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.66974049573751</v>
+        <v>-25.6996695000337</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.593208230002616</v>
+        <v>-2.685639888065202</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.9828549804703097</v>
+        <v>-0.3362130508146175</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.62008623064633</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.87887021573616</v>
+        <v>-27.94904495896781</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.450619959753377</v>
+        <v>-2.560267996052833</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.087920710775161</v>
+        <v>-0.4670313408091444</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.295788267408968</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.14635232950038</v>
+        <v>-30.24292115526095</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.911482112084977</v>
+        <v>-3.057330365741805</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.43613668945655</v>
+        <v>-0.8436052474457113</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-5.970745151834866</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.36062732451582</v>
+        <v>-32.42375840881863</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.944906761239904</v>
+        <v>-3.121836141842989</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.685322489443122</v>
+        <v>-1.075273546230054</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-5.648501963256634</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.59032505227882</v>
+        <v>-34.64808829241652</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.259226767864063</v>
+        <v>-3.502730508417326</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.870067974842718</v>
+        <v>-1.309966166970836</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.331531361700437</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.10205716785828</v>
+        <v>-37.17225809569563</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.511646366652541</v>
+        <v>-3.769577824937387</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.297597124139283</v>
+        <v>-1.723290167684127</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.026461663269687</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.58331040242221</v>
+        <v>-39.70916670963972</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.456043356483731</v>
+        <v>-3.687057040125987</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.759768506755055</v>
+        <v>-2.207063849988748</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.734286594859746</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.1473855447629</v>
+        <v>-42.28368950964811</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.629869861313328</v>
+        <v>-3.861695267731772</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.065434501200833</v>
+        <v>-2.561145180343229</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.466855851718686</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.44757223102575</v>
+        <v>-44.55115853110949</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.863672205460872</v>
+        <v>-4.131501444694062</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.604392239983329</v>
+        <v>-3.158468405194139</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.216245142823633</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.77648342972335</v>
+        <v>-46.88783346539223</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.000879539242161</v>
+        <v>-4.291266816271645</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.917429200928999</v>
+        <v>-3.454000957240422</v>
       </c>
     </row>
   </sheetData>
